--- a/Product Backlog1.xlsx
+++ b/Product Backlog1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe.a.gomes\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6870B8-9DD5-40E4-99F2-6B07B55C48C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DFEF6E-49DB-4107-A72B-7D9AE2D95FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="86">
   <si>
     <t>Product BackLog Classified (PBC)</t>
   </si>
@@ -275,79 +275,28 @@
     <t>O sistema deverá notificar quando haver check-out's de carro pendente</t>
   </si>
   <si>
-    <t>Permitir que os usuários se cadastrem e façam login.</t>
-  </si>
-  <si>
-    <t>Desenvolver uma página inicial com geolocalização e opções de estacionamentos.</t>
-  </si>
-  <si>
-    <t>Exibir informações detalhadas sobre cada estacionamento, como preço, horário de funcionamento e capacidade de vagas.</t>
-  </si>
-  <si>
-    <t>Permitir que os usuários selecionem um estacionamento e escolham uma data e horário para fazer a reserva.</t>
-  </si>
-  <si>
-    <t>Verificar a disponibilidade da vaga selecionada e confirmar a reserva.</t>
-  </si>
-  <si>
-    <t>Criar uma página para os usuários visualizarem suas reservas atuais e passadas.</t>
-  </si>
-  <si>
-    <t>Permitir que os usuários cancelem as reservas dentro de um prazo específico.</t>
-  </si>
-  <si>
-    <t>Enviar notificações aos usuários em caso de cancelamento de reserva ou alterações nos horários de funcionamento dos estacionamentos.</t>
-  </si>
-  <si>
-    <t>Permitir que os usuários avaliem e deixem comentários sobre os estacionamentos que utilizaram.</t>
-  </si>
-  <si>
-    <t>Implementar um sistema de suporte para que os usuários possam relatar problemas ou sugerir melhorias.</t>
-  </si>
-  <si>
-    <t>Adicionar opções de filtragem avançada na pesquisa, como tipo de estacionamento (coberto, ao ar livre), acessibilidade, etc.</t>
-  </si>
-  <si>
-    <t>Integrar com serviços de mapas para fornecer direções aos usuários até o estacionamento selecionado.</t>
-  </si>
-  <si>
-    <t>Permitir que os usuários façam reservas recorrentes, como todos os dias úteis da semana ou em determinados dias do mês.</t>
-  </si>
-  <si>
-    <t>Permitir que os usuários convidem amigos ou familiares para compartilhar o aplicativo.</t>
-  </si>
-  <si>
-    <t>Informar aos usuários sobre as medidas de segurança dos estacionamentos, como iluminação adequada e presença de seguranças.</t>
-  </si>
-  <si>
-    <t>Permitir que usuários possam alterar seus dados pessoais, incluindo foto de perfil</t>
-  </si>
-  <si>
-    <t>Permitir que gerentes façam uploads de imagens de seus estacionamentos</t>
-  </si>
-  <si>
-    <t>Sistema lembrar de login efetuado e direcionar para a tela inicial (Tela do mapa)</t>
-  </si>
-  <si>
-    <t>Permitir que o usuário escolha seu veículo quando fazer a reserva</t>
-  </si>
-  <si>
-    <t>Criar funcionalidade de "Esqueci minha senha"</t>
-  </si>
-  <si>
-    <t>Possibilitar a visiualização do valor total de sua tarifa no aplicativo</t>
-  </si>
-  <si>
-    <t>Permitir que usuários possam cadastrar, alterar e apagar dados de seus veículos</t>
-  </si>
-  <si>
-    <t>Criar uma sidebar para navegação de telas no app</t>
-  </si>
-  <si>
-    <t>Permitir que os usuários solicitem check-out pelo aplicativo (somente se o usuário tenha feito agendamento)</t>
-  </si>
-  <si>
-    <t>Implementar uma função de pesquisa para encontrar estacionamentos próximos à localização de destino do usuário.</t>
+    <t>Apresentar informações detalhadas sobre cada estacionamento, incluindo preços, horários de funcionamento e a capacidade de vagas disponíveis.</t>
+  </si>
+  <si>
+    <t>Desenvolver uma página inicial com recursos de geolocalização e diversas opções de estacionamentos próximos.</t>
+  </si>
+  <si>
+    <t>Implementar uma função de pesquisa que permite aos usuários encontrar estacionamentos próximos ao seu destino com facilidade.</t>
+  </si>
+  <si>
+    <t>Criar uma página exclusiva para que os usuários possam visualizar suas reservas atuais e passadas de maneira conveniente.</t>
+  </si>
+  <si>
+    <t>Oferecer aos usuários a oportunidade de compartilhar suas experiências avaliando os estacionamentos que utilizaram.</t>
+  </si>
+  <si>
+    <t>Criar a funcionalidade do botão "Ir até lá" para que os usuários possam traçar o melhor trajeto até o estacionamento de forma eficaz.</t>
+  </si>
+  <si>
+    <t>Facilitar que os usuários solicitem o check-out através do aplicativo, garantindo que essa funcionalidade só esteja disponível para aqueles que tenham feito agendamento prévio.</t>
+  </si>
+  <si>
+    <t>Permitir que o usuário adicione, altere e exclua veículos, para selecionar no momento do agendamento.</t>
   </si>
 </sst>
 </file>
@@ -763,7 +712,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -939,6 +888,53 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -964,7 +960,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1017,6 +1013,56 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFEFB661"/>
@@ -1027,6 +1073,56 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor rgb="FFFFFC8D"/>
         </patternFill>
       </fill>
@@ -1043,40 +1139,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFEFB661"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFEFB661"/>
-          <bgColor rgb="FFEFB661"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
@@ -1086,30 +1148,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFEFB661"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFC8D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2385,74 +2423,74 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B5:B30">
-    <cfRule type="expression" dxfId="35" priority="8">
+    <cfRule type="expression" dxfId="40" priority="8">
       <formula>$C5="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="9">
+    <cfRule type="expression" dxfId="39" priority="9">
       <formula>$C5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B37">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>$C5="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>$C5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B37">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="36" priority="1">
       <formula>$C$4="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="35" priority="4">
       <formula>$C11="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="5">
+    <cfRule type="expression" dxfId="34" priority="5">
       <formula>$C11="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C37 F5:F37">
-    <cfRule type="expression" dxfId="28" priority="54">
+    <cfRule type="expression" dxfId="33" priority="54">
       <formula>$C5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D37">
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="32" priority="23">
       <formula>$C5="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="24">
+    <cfRule type="expression" dxfId="31" priority="24">
       <formula>$C5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D10">
-    <cfRule type="expression" dxfId="25" priority="37">
+    <cfRule type="expression" dxfId="30" priority="37">
       <formula>$C5="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="38">
+    <cfRule type="expression" dxfId="29" priority="38">
       <formula>$C5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D37">
-    <cfRule type="expression" dxfId="23" priority="18">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>$C$4="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="27" priority="25">
       <formula>$C11="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="26">
+    <cfRule type="expression" dxfId="26" priority="26">
       <formula>$C11="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F37 C5:C37">
-    <cfRule type="expression" dxfId="20" priority="53">
+    <cfRule type="expression" dxfId="25" priority="53">
       <formula>$C5="Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F37">
-    <cfRule type="expression" dxfId="19" priority="51">
+    <cfRule type="expression" dxfId="24" priority="51">
       <formula>$C5="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="52">
+    <cfRule type="expression" dxfId="23" priority="52">
       <formula>$C5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2491,10 +2529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CC4300-8844-4F4E-84B6-3B44999E9BFE}">
-  <dimension ref="B1:H54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2510,8 +2548,8 @@
     <col min="10" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
@@ -2521,8 +2559,8 @@
       <c r="F2" s="55"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="2:8" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" s="25" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:8" s="25" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
@@ -2539,478 +2577,343 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="26" customFormat="1" ht="21.6" x14ac:dyDescent="0.25">
       <c r="B5" s="51">
         <v>1</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>78</v>
+      <c r="D5" s="58" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="41"/>
     </row>
-    <row r="6" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="26" customFormat="1" ht="21.6" x14ac:dyDescent="0.25">
       <c r="B6" s="52">
         <v>2</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>79</v>
+      <c r="D6" s="58" t="s">
+        <v>80</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="33"/>
     </row>
-    <row r="7" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B7" s="51">
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>102</v>
+      <c r="D7" s="58" t="s">
+        <v>78</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="33"/>
     </row>
-    <row r="8" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52">
         <v>4</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>80</v>
+      <c r="D8" s="58" t="s">
+        <v>81</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="33"/>
     </row>
-    <row r="9" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="51">
         <v>5</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>81</v>
+      <c r="D9" s="58" t="s">
+        <v>82</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="33"/>
     </row>
-    <row r="10" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52">
         <v>6</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>82</v>
+      <c r="D10" s="59" t="s">
+        <v>83</v>
       </c>
       <c r="E10" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="33"/>
     </row>
-    <row r="11" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B11" s="51">
         <v>7</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>83</v>
+      <c r="D11" s="61" t="s">
+        <v>84</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="33"/>
     </row>
-    <row r="12" spans="2:8" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52">
         <v>8</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>84</v>
+      <c r="D12" s="60" t="s">
+        <v>85</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="33"/>
     </row>
-    <row r="13" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="51">
-        <v>9</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>35</v>
-      </c>
+    <row r="13" spans="1:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="52"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="33"/>
     </row>
-    <row r="14" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="52">
-        <v>10</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="33"/>
-    </row>
-    <row r="15" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="51">
-        <v>11</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="33"/>
-    </row>
-    <row r="16" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="52">
-        <v>12</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="33"/>
+    <row r="14" spans="1:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="64"/>
+    </row>
+    <row r="15" spans="1:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="64"/>
+    </row>
+    <row r="16" spans="1:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="51">
-        <v>13</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="33"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="52">
-        <v>14</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="33"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="51">
-        <v>15</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="33"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="51">
-        <v>16</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="33"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="52">
-        <v>17</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="33"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="51">
-        <v>18</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="33"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="64"/>
     </row>
     <row r="23" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="52">
-        <v>19</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="33"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="64"/>
     </row>
     <row r="24" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="51">
-        <v>20</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="33"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="64"/>
     </row>
     <row r="25" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="52">
-        <v>21</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="33"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="64"/>
     </row>
     <row r="26" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="51">
-        <v>22</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="33"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="64"/>
     </row>
     <row r="27" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="52">
-        <v>23</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="33"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="64"/>
     </row>
     <row r="28" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="51">
-        <v>24</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="33"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="64"/>
     </row>
     <row r="29" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="52">
-        <v>25</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="33"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="64"/>
     </row>
     <row r="30" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="51"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="33"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="64"/>
     </row>
     <row r="31" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="33"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="64"/>
     </row>
     <row r="32" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="33"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="64"/>
     </row>
     <row r="33" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="33"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="64"/>
     </row>
     <row r="34" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="33"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="64"/>
     </row>
     <row r="35" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="33"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="64"/>
     </row>
     <row r="36" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="33"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="64"/>
     </row>
     <row r="37" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="27"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="33"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="64"/>
     </row>
     <row r="38" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="47"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="35"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
     </row>
     <row r="39" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="47"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="35"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
     </row>
     <row r="40" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="47"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="35"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
     </row>
     <row r="41" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="47"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="35"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
     </row>
     <row r="42" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="47"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="35"/>
-    </row>
-    <row r="43" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="48"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="38"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+    </row>
+    <row r="43" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="67"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
     </row>
     <row r="44" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="49"/>
@@ -3059,43 +2962,35 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B30">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>$C5="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="21" priority="7">
       <formula>$C5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B37">
-    <cfRule type="expression" dxfId="4" priority="2">
+  <conditionalFormatting sqref="B5:B37 C5:D7 C8 C15:D37 C14 C9:D13">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>$C5="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>$C5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B37">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="B11:B37 D15:D37 D11:D13">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$C$4="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>$C11="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>$C11="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C37 F5:F37">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$C5="Dropped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:D37">
-    <cfRule type="expression" dxfId="16" priority="9">
-      <formula>$C5="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="10">
-      <formula>$C5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D10">
@@ -3106,28 +3001,55 @@
       <formula>$C5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D37">
-    <cfRule type="expression" dxfId="12" priority="8">
-      <formula>$C$4="Plannedd"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$C11="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$C11="Dropped"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F5:F37 C5:C37">
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>$C5="Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F37">
-    <cfRule type="expression" dxfId="8" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>$C5="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="16">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>$C5="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="9" priority="57">
+      <formula>$C11="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="58">
+      <formula>$C11="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="7" priority="64">
+      <formula>$C$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="65">
+      <formula>$C11="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="66">
+      <formula>$C11="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="4" priority="69">
+      <formula>$C14="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="70">
+      <formula>$C14="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="2" priority="74">
+      <formula>$C$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="75">
+      <formula>$C14="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="76">
+      <formula>$C14="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
